--- a/src/ExcelsiorSyncfusion.Tests/SplitterTests.MultipleOverlappingNestedAndColumnConfig.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/SplitterTests.MultipleOverlappingNestedAndColumnConfig.verified.xlsx
@@ -158,7 +158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="28.5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>

--- a/src/ExcelsiorSyncfusion.Tests/SplitterTests.MultipleOverlappingNestedAndColumnConfig.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/SplitterTests.MultipleOverlappingNestedAndColumnConfig.verified.xlsx
@@ -143,8 +143,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="3" width="15.27734375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
